--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_HUYENNGUYEN.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_HUYENNGUYEN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\training\doc\backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="13425" windowHeight="4110" tabRatio="818" activeTab="10"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="13425" windowHeight="4110" tabRatio="818" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -762,9 +762,6 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>0 = Male, 1 = Female, 3 = other</t>
-  </si>
-  <si>
     <t>VARCHAR(60)</t>
   </si>
   <si>
@@ -892,6 +889,12 @@
   </si>
   <si>
     <t>profile</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huyền</t>
+  </si>
+  <si>
+    <t>0 = Male, 1 = Female, 2 = other</t>
   </si>
 </sst>
 </file>
@@ -3788,6 +3791,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3882,6 +3891,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3906,12 +3921,6 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3935,12 +3944,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="462">
@@ -4735,7 +4738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4770,7 +4773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4981,7 +4984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AP24" sqref="AP24"/>
     </sheetView>
   </sheetViews>
@@ -5654,29 +5657,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="151"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="151"/>
-      <c r="AJ13" s="151"/>
-      <c r="AK13" s="151"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="153"/>
+      <c r="X13" s="153"/>
+      <c r="Y13" s="153"/>
+      <c r="Z13" s="153"/>
+      <c r="AA13" s="153"/>
+      <c r="AB13" s="153"/>
+      <c r="AC13" s="153"/>
+      <c r="AD13" s="153"/>
+      <c r="AE13" s="153"/>
+      <c r="AF13" s="153"/>
+      <c r="AG13" s="153"/>
+      <c r="AH13" s="153"/>
+      <c r="AI13" s="153"/>
+      <c r="AJ13" s="153"/>
+      <c r="AK13" s="153"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5708,29 +5711,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="151"/>
-      <c r="AK14" s="151"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="153"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="153"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="153"/>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="153"/>
+      <c r="AJ14" s="153"/>
+      <c r="AK14" s="153"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5758,43 +5761,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="152" t="s">
+      <c r="K15" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="152"/>
-      <c r="W15" s="152"/>
-      <c r="X15" s="152"/>
-      <c r="Y15" s="152"/>
-      <c r="Z15" s="152"/>
-      <c r="AA15" s="152"/>
-      <c r="AB15" s="152"/>
-      <c r="AC15" s="152"/>
-      <c r="AD15" s="152"/>
-      <c r="AE15" s="152"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="152"/>
-      <c r="AH15" s="152"/>
-      <c r="AI15" s="152"/>
-      <c r="AJ15" s="152"/>
-      <c r="AK15" s="152"/>
-      <c r="AL15" s="152"/>
-      <c r="AM15" s="152"/>
-      <c r="AN15" s="152"/>
-      <c r="AO15" s="152"/>
-      <c r="AP15" s="152"/>
-      <c r="AQ15" s="152"/>
-      <c r="AR15" s="152"/>
-      <c r="AS15" s="152"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="154"/>
+      <c r="AB15" s="154"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
+      <c r="AE15" s="154"/>
+      <c r="AF15" s="154"/>
+      <c r="AG15" s="154"/>
+      <c r="AH15" s="154"/>
+      <c r="AI15" s="154"/>
+      <c r="AJ15" s="154"/>
+      <c r="AK15" s="154"/>
+      <c r="AL15" s="154"/>
+      <c r="AM15" s="154"/>
+      <c r="AN15" s="154"/>
+      <c r="AO15" s="154"/>
+      <c r="AP15" s="154"/>
+      <c r="AQ15" s="154"/>
+      <c r="AR15" s="154"/>
+      <c r="AS15" s="154"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5814,41 +5817,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="152"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="152"/>
-      <c r="W16" s="152"/>
-      <c r="X16" s="152"/>
-      <c r="Y16" s="152"/>
-      <c r="Z16" s="152"/>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="152"/>
-      <c r="AC16" s="152"/>
-      <c r="AD16" s="152"/>
-      <c r="AE16" s="152"/>
-      <c r="AF16" s="152"/>
-      <c r="AG16" s="152"/>
-      <c r="AH16" s="152"/>
-      <c r="AI16" s="152"/>
-      <c r="AJ16" s="152"/>
-      <c r="AK16" s="152"/>
-      <c r="AL16" s="152"/>
-      <c r="AM16" s="152"/>
-      <c r="AN16" s="152"/>
-      <c r="AO16" s="152"/>
-      <c r="AP16" s="152"/>
-      <c r="AQ16" s="152"/>
-      <c r="AR16" s="152"/>
-      <c r="AS16" s="152"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
+      <c r="AA16" s="154"/>
+      <c r="AB16" s="154"/>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
+      <c r="AE16" s="154"/>
+      <c r="AF16" s="154"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="154"/>
+      <c r="AJ16" s="154"/>
+      <c r="AK16" s="154"/>
+      <c r="AL16" s="154"/>
+      <c r="AM16" s="154"/>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
+      <c r="AQ16" s="154"/>
+      <c r="AR16" s="154"/>
+      <c r="AS16" s="154"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6437,14 +6440,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="153">
+      <c r="AN27" s="155">
         <v>42279</v>
       </c>
-      <c r="AO27" s="153"/>
-      <c r="AP27" s="153"/>
-      <c r="AQ27" s="153"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="153"/>
+      <c r="AO27" s="155"/>
+      <c r="AP27" s="155"/>
+      <c r="AQ27" s="155"/>
+      <c r="AR27" s="155"/>
+      <c r="AS27" s="155"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6910,7 +6913,9 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
@@ -6938,101 +6943,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="178" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:18" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:18" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:18" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:18" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:18" ht="14.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="1:18" ht="12.75" thickBot="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="12" spans="1:18" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -7077,7 +7084,7 @@
         <v>113</v>
       </c>
       <c r="M13" s="128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N13" s="128" t="s">
         <v>175</v>
@@ -7118,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M14" s="127">
         <v>42045</v>
@@ -7206,7 +7213,7 @@
         <v>153</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>128</v>
@@ -7226,10 +7233,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>128</v>
@@ -7278,10 +7285,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="163"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -7299,10 +7306,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="174" t="s">
+      <c r="C25" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="175"/>
+      <c r="D25" s="177"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -7316,8 +7323,8 @@
         <v>2</v>
       </c>
       <c r="B26" s="51"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="161"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="163"/>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
       <c r="G26" s="20"/>
@@ -7327,8 +7334,8 @@
         <v>3</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="55"/>
@@ -7345,14 +7352,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="155" t="s">
+      <c r="D30" s="158"/>
+      <c r="E30" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="157"/>
+      <c r="F30" s="159"/>
       <c r="G30" s="38" t="s">
         <v>38</v>
       </c>
@@ -7362,14 +7369,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="19"/>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="192"/>
-      <c r="E31" s="195" t="s">
+      <c r="D31" s="186"/>
+      <c r="E31" s="197" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="196"/>
+      <c r="F31" s="198"/>
       <c r="G31" s="20" t="s">
         <v>133</v>
       </c>
@@ -7379,14 +7386,14 @@
         <v>1</v>
       </c>
       <c r="B32" s="19"/>
-      <c r="C32" s="193" t="s">
+      <c r="C32" s="195" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="197" t="s">
+      <c r="D32" s="196"/>
+      <c r="E32" s="199" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="198"/>
+      <c r="F32" s="200"/>
       <c r="G32" s="20" t="s">
         <v>165</v>
       </c>
@@ -7396,10 +7403,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="54"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="200"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="202"/>
       <c r="G33" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" thickBot="1">
@@ -7414,14 +7421,14 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="155" t="s">
+      <c r="D36" s="158"/>
+      <c r="E36" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="156"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
@@ -7474,7 +7481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
@@ -7502,101 +7511,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="178" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:19" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:19" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:19" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="182" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:19" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="182" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:19" ht="14.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" thickBot="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="12" spans="1:19" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -7632,16 +7643,16 @@
         <v>104</v>
       </c>
       <c r="J13" s="128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K13" s="128" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L13" s="128" t="s">
+        <v>211</v>
+      </c>
+      <c r="M13" s="128" t="s">
         <v>212</v>
-      </c>
-      <c r="M13" s="128" t="s">
-        <v>213</v>
       </c>
       <c r="N13" s="128" t="s">
         <v>157</v>
@@ -7685,10 +7696,10 @@
         <v>140</v>
       </c>
       <c r="L14" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" s="150" t="s">
         <v>235</v>
-      </c>
-      <c r="M14" s="150" t="s">
-        <v>236</v>
       </c>
       <c r="N14" s="127">
         <v>42045</v>
@@ -7705,10 +7716,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>207</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>208</v>
       </c>
       <c r="D15" s="65" t="s">
         <v>53</v>
@@ -7724,20 +7735,20 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>210</v>
-      </c>
       <c r="D16" s="129" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="138"/>
       <c r="G16" s="106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -7745,10 +7756,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>211</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>212</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>111</v>
@@ -7773,10 +7784,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>111</v>
@@ -7804,7 +7815,7 @@
         <v>153</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>128</v>
@@ -7823,10 +7834,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>128</v>
@@ -7874,10 +7885,10 @@
       <c r="B25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="163"/>
+      <c r="D25" s="165"/>
       <c r="E25" s="34" t="s">
         <v>33</v>
       </c>
@@ -7895,10 +7906,10 @@
       <c r="B26" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="174" t="s">
+      <c r="C26" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="175"/>
+      <c r="D26" s="177"/>
       <c r="E26" s="46" t="s">
         <v>3</v>
       </c>
@@ -7912,8 +7923,8 @@
         <v>2</v>
       </c>
       <c r="B27" s="51"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
       <c r="G27" s="20"/>
@@ -7923,8 +7934,8 @@
         <v>3</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
       <c r="G28" s="55"/>
@@ -7941,14 +7952,14 @@
       <c r="B31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="155" t="s">
+      <c r="C31" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="156"/>
-      <c r="E31" s="155" t="s">
+      <c r="D31" s="158"/>
+      <c r="E31" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="157"/>
+      <c r="F31" s="159"/>
       <c r="G31" s="38" t="s">
         <v>38</v>
       </c>
@@ -7958,14 +7969,14 @@
         <v>1</v>
       </c>
       <c r="B32" s="19"/>
-      <c r="C32" s="191" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="192"/>
-      <c r="E32" s="195" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="196"/>
+      <c r="C32" s="185" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="186"/>
+      <c r="E32" s="197" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="198"/>
       <c r="G32" s="20" t="s">
         <v>104</v>
       </c>
@@ -7975,10 +7986,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="54"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="200"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="202"/>
       <c r="G33" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" thickBot="1">
@@ -7993,14 +8004,14 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="155" t="s">
+      <c r="D36" s="158"/>
+      <c r="E36" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="156"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
@@ -8013,11 +8024,6 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -8025,6 +8031,11 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -8324,7 +8335,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8336,11 +8347,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" thickBot="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
     </row>
     <row r="2" spans="1:3" ht="12.75" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -8368,11 +8379,11 @@
       <c r="A4" s="69">
         <v>2</v>
       </c>
-      <c r="B4" s="201" t="s">
+      <c r="B4" s="151" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="202" t="s">
-        <v>237</v>
+      <c r="C4" s="152" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -8401,7 +8412,7 @@
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="59">
-        <f t="shared" ref="A6:A8" si="0">A6+1</f>
+        <f t="shared" ref="A7:A8" si="0">A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="123" t="s">
@@ -8457,7 +8468,9 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
@@ -8482,101 +8495,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="178" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:14" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:14" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="182" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:14" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:14" ht="14.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" thickBot="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8621,7 +8636,7 @@
         <v>106</v>
       </c>
       <c r="M13" s="128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N13" s="128" t="s">
         <v>170</v>
@@ -8652,10 +8667,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>149</v>
@@ -8697,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>102</v>
@@ -8739,10 +8754,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="141" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="142" t="s">
         <v>128</v>
@@ -8760,10 +8775,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="146" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>128</v>
@@ -8788,10 +8803,10 @@
       <c r="B22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="163"/>
+      <c r="D22" s="165"/>
       <c r="E22" s="34" t="s">
         <v>33</v>
       </c>
@@ -8809,10 +8824,10 @@
       <c r="B23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="174" t="s">
+      <c r="C23" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="175"/>
+      <c r="D23" s="177"/>
       <c r="E23" s="46" t="s">
         <v>3</v>
       </c>
@@ -8828,10 +8843,10 @@
       <c r="B24" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="161"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="52" t="s">
         <v>182</v>
       </c>
@@ -8847,8 +8862,8 @@
         <v>3</v>
       </c>
       <c r="B25" s="54"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="159"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="58"/>
       <c r="F25" s="58"/>
       <c r="G25" s="55"/>
@@ -8865,14 +8880,14 @@
       <c r="B28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="155" t="s">
+      <c r="D28" s="158"/>
+      <c r="E28" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="157"/>
+      <c r="F28" s="159"/>
       <c r="G28" s="38" t="s">
         <v>38</v>
       </c>
@@ -8889,14 +8904,14 @@
       <c r="B31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="155" t="s">
+      <c r="C31" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="156"/>
-      <c r="E31" s="155" t="s">
+      <c r="D31" s="158"/>
+      <c r="E31" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="157"/>
+      <c r="F31" s="159"/>
       <c r="G31" s="38" t="s">
         <v>39</v>
       </c>
@@ -8944,7 +8959,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -8976,101 +8991,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="178" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:22" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:22" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:22" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="182" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:22" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="182" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:22" ht="14.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="1:22" ht="12.75" thickBot="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9171,19 +9188,19 @@
         <v>151</v>
       </c>
       <c r="R15" s="128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S15" s="128" t="s">
         <v>147</v>
       </c>
       <c r="T15" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="U15" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="U15" s="128" t="s">
-        <v>198</v>
-      </c>
       <c r="V15" s="128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15">
@@ -9213,10 +9230,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N16" s="13">
         <v>1</v>
@@ -9228,22 +9245,22 @@
         <v>1</v>
       </c>
       <c r="Q16" s="127" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R16" s="127">
         <v>42045</v>
       </c>
       <c r="S16" s="136" t="s">
+        <v>223</v>
+      </c>
+      <c r="T16" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="U16" s="127">
         <v>42045</v>
       </c>
       <c r="V16" s="127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -9287,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="106" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9301,7 +9318,7 @@
         <v>151</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>0</v>
@@ -9318,7 +9335,7 @@
         <v>143</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>128</v>
@@ -9341,7 +9358,7 @@
         <v>147</v>
       </c>
       <c r="D21" s="129" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>112</v>
@@ -9357,13 +9374,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>112</v>
@@ -9379,7 +9396,7 @@
         <v>159</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>129</v>
@@ -9397,10 +9414,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="65" t="s">
         <v>203</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>204</v>
       </c>
       <c r="D24" s="65" t="s">
         <v>130</v>
@@ -9436,10 +9453,10 @@
       <c r="B28" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="163"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="34" t="s">
         <v>33</v>
       </c>
@@ -9457,10 +9474,10 @@
       <c r="B29" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="175"/>
+      <c r="D29" s="177"/>
       <c r="E29" s="46" t="s">
         <v>3</v>
       </c>
@@ -9476,10 +9493,10 @@
       <c r="B30" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="160" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="161"/>
+      <c r="C30" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="163"/>
       <c r="E30" s="52" t="s">
         <v>176</v>
       </c>
@@ -9495,8 +9512,8 @@
         <v>3</v>
       </c>
       <c r="B31" s="54"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="159"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
       <c r="G31" s="55"/>
@@ -9513,14 +9530,14 @@
       <c r="B34" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="155" t="s">
+      <c r="C34" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="156"/>
-      <c r="E34" s="155" t="s">
+      <c r="D34" s="158"/>
+      <c r="E34" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="157"/>
+      <c r="F34" s="159"/>
       <c r="G34" s="38" t="s">
         <v>38</v>
       </c>
@@ -9530,14 +9547,14 @@
         <v>1</v>
       </c>
       <c r="B35" s="19"/>
-      <c r="C35" s="174" t="s">
+      <c r="C35" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="175"/>
-      <c r="E35" s="191" t="s">
+      <c r="D35" s="177"/>
+      <c r="E35" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="192"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="20" t="s">
         <v>133</v>
       </c>
@@ -9554,14 +9571,14 @@
       <c r="B38" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="155" t="s">
+      <c r="C38" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="156"/>
-      <c r="E38" s="155" t="s">
+      <c r="D38" s="158"/>
+      <c r="E38" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="157"/>
+      <c r="F38" s="159"/>
       <c r="G38" s="38" t="s">
         <v>39</v>
       </c>
@@ -9578,11 +9595,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -9590,6 +9602,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O16" r:id="rId1"/>
@@ -9630,103 +9647,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="176" t="s">
+      <c r="F2" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="177"/>
+      <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="180" t="s">
+      <c r="F3" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:11" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:11" ht="14.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" thickBot="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -9948,10 +9965,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="163"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -9969,10 +9986,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="174" t="s">
+      <c r="C25" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="175"/>
+      <c r="D25" s="177"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -9986,10 +10003,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="185" t="s">
+      <c r="C26" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="186"/>
+      <c r="D26" s="190"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -10008,14 +10025,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="155" t="s">
+      <c r="D29" s="158"/>
+      <c r="E29" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="157"/>
+      <c r="F29" s="159"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -10032,14 +10049,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="155" t="s">
+      <c r="D32" s="158"/>
+      <c r="E32" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="157"/>
+      <c r="F32" s="159"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -10049,14 +10066,14 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="183" t="s">
+      <c r="C33" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="185" t="s">
+      <c r="D33" s="188"/>
+      <c r="E33" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="186"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
@@ -10131,105 +10148,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="176" t="s">
+      <c r="F2" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="177"/>
+      <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="180" t="s">
+      <c r="F3" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" thickBot="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10334,10 +10351,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="163"/>
+      <c r="D19" s="165"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -10355,10 +10372,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="174" t="s">
+      <c r="C20" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="175"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -10372,10 +10389,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="183" t="s">
+      <c r="C21" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="184"/>
+      <c r="D21" s="188"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -10394,14 +10411,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="155" t="s">
+      <c r="D24" s="158"/>
+      <c r="E24" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="157"/>
+      <c r="F24" s="159"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -10418,14 +10435,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="155" t="s">
+      <c r="C27" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="155" t="s">
+      <c r="D27" s="158"/>
+      <c r="E27" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="157"/>
+      <c r="F27" s="159"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -10435,10 +10452,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="186"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="190"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
@@ -10511,103 +10528,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="189" t="s">
+      <c r="F2" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="190"/>
+      <c r="G2" s="194"/>
     </row>
     <row r="3" spans="1:14" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:14" ht="24">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:14" ht="24">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:14" ht="14.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" thickBot="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -10823,10 +10840,10 @@
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="163"/>
+      <c r="D21" s="165"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -10850,10 +10867,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="175"/>
+      <c r="D22" s="177"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -10873,10 +10890,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="160" t="s">
+      <c r="C23" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="161"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -10894,10 +10911,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="183" t="s">
+      <c r="C24" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="184"/>
+      <c r="D24" s="188"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -10936,14 +10953,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="155" t="s">
+      <c r="C27" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="155" t="s">
+      <c r="D27" s="158"/>
+      <c r="E27" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="157"/>
+      <c r="F27" s="159"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -10980,14 +10997,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="155" t="s">
+      <c r="D30" s="158"/>
+      <c r="E30" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="157"/>
+      <c r="F30" s="159"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -11003,14 +11020,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="174" t="s">
+      <c r="C31" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="175"/>
-      <c r="E31" s="160" t="s">
+      <c r="D31" s="177"/>
+      <c r="E31" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="161"/>
+      <c r="F31" s="163"/>
       <c r="G31" s="53" t="s">
         <v>76</v>
       </c>
@@ -11026,14 +11043,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="185" t="s">
+      <c r="D32" s="192"/>
+      <c r="E32" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="186"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>
@@ -11133,7 +11150,9 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
@@ -11161,101 +11180,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="181"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
+      <c r="F2" s="178" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:18" ht="14.25">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:18" ht="14.25">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:18" ht="14.25">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="182"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:18" ht="14.25">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="182" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="182"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:18" ht="14.25">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="170"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="1:18" ht="12.75" thickBot="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="12" spans="1:18" ht="12.75" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -11297,7 +11318,7 @@
         <v>127</v>
       </c>
       <c r="L13" s="128" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M13" s="128" t="s">
         <v>171</v>
@@ -11306,10 +11327,10 @@
         <v>172</v>
       </c>
       <c r="O13" s="128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P13" s="128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="128"/>
       <c r="R13" s="128"/>
@@ -11342,13 +11363,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L14" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="N14" s="13">
         <v>1</v>
@@ -11385,10 +11406,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>230</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>231</v>
       </c>
       <c r="D16" s="65" t="s">
         <v>152</v>
@@ -11404,13 +11425,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="D17" s="65" t="s">
         <v>201</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>202</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>112</v>
@@ -11470,7 +11491,7 @@
         <v>159</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>129</v>
@@ -11489,10 +11510,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="65" t="s">
         <v>203</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>204</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>130</v>
@@ -11529,10 +11550,10 @@
       <c r="B25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="163"/>
+      <c r="D25" s="165"/>
       <c r="E25" s="34" t="s">
         <v>33</v>
       </c>
@@ -11550,10 +11571,10 @@
       <c r="B26" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="174" t="s">
+      <c r="C26" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="175"/>
+      <c r="D26" s="177"/>
       <c r="E26" s="46" t="s">
         <v>3</v>
       </c>
@@ -11569,10 +11590,10 @@
       <c r="B27" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="161"/>
+      <c r="C27" s="162" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="163"/>
       <c r="E27" s="52" t="s">
         <v>176</v>
       </c>
@@ -11588,8 +11609,8 @@
         <v>3</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
       <c r="G28" s="55"/>
@@ -11606,14 +11627,14 @@
       <c r="B31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="155" t="s">
+      <c r="C31" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="156"/>
-      <c r="E31" s="155" t="s">
+      <c r="D31" s="158"/>
+      <c r="E31" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="157"/>
+      <c r="F31" s="159"/>
       <c r="G31" s="38" t="s">
         <v>38</v>
       </c>
@@ -11623,14 +11644,14 @@
         <v>1</v>
       </c>
       <c r="B32" s="19"/>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="191" t="s">
+      <c r="D32" s="177"/>
+      <c r="E32" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="192"/>
+      <c r="F32" s="186"/>
       <c r="G32" s="20" t="s">
         <v>133</v>
       </c>
@@ -11647,14 +11668,14 @@
       <c r="B35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="155" t="s">
+      <c r="C35" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="156"/>
-      <c r="E35" s="155" t="s">
+      <c r="D35" s="158"/>
+      <c r="E35" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="157"/>
+      <c r="F35" s="159"/>
       <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
